--- a/Assets/Planner/SoulCard/SoulCard/SoulCardMasterDataTable.xlsx
+++ b/Assets/Planner/SoulCard/SoulCard/SoulCardMasterDataTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\SoulRun\Assets\Planner\SoulCard\SoulCard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018280E1-04AD-4DF0-BF2A-BD6CABA6FC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50ABA733-D96D-4A3B-A1C8-7503797B702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataTable" sheetId="1" r:id="rId1"/>
@@ -663,12 +663,12 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="18.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -742,7 +742,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -816,9 +816,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>48</v>
@@ -890,7 +890,7 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -964,9 +964,9 @@
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>48</v>
